--- a/01_Acquifer Pumping Test/05_기타/모니터해상도.xlsx
+++ b/01_Acquifer Pumping Test/05_기타/모니터해상도.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\09_hardRain\09_ihanseol - 2024\Z01_소소한작업들\04_Excel Automaiton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\09_ihanseol - 2024\Z01_소소한작업들\04_Excel Automaiton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{589AF218-7023-4B17-AED1-DBDAF0023035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7CB87C-F438-491D-9E91-44A6D5402061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="3780" windowWidth="36000" windowHeight="22545" xr2:uid="{4B4C7C8A-A003-44E1-878C-B52F6B52F4CE}"/>
+    <workbookView xWindow="48945" yWindow="405" windowWidth="36000" windowHeight="22545" xr2:uid="{4B4C7C8A-A003-44E1-878C-B52F6B52F4CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="176" formatCode="0.0000000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,17 +92,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,44 +436,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB107FC-7263-4B60-AC52-4BCAF1C4DD19}">
-  <dimension ref="I8:L15"/>
+  <dimension ref="I5:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
     <col min="12" max="12" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="5" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>3072</v>
+      </c>
+      <c r="J5">
+        <v>1728</v>
+      </c>
+    </row>
     <row r="8" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>16</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>9</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <f>I8/J8</f>
         <v>1.7777777777777777</v>
       </c>
     </row>
     <row r="11" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>2560</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>1440</v>
       </c>
       <c r="L12">
@@ -485,10 +490,10 @@
       </c>
     </row>
     <row r="13" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>1920</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>1080</v>
       </c>
       <c r="L13">
@@ -497,10 +502,10 @@
       </c>
     </row>
     <row r="14" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>3840</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>2160</v>
       </c>
       <c r="L14">
@@ -509,15 +514,96 @@
       </c>
     </row>
     <row r="15" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>3200</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>1800</v>
       </c>
       <c r="L15">
         <f>J15*$L$8</f>
         <v>3200</v>
+      </c>
+    </row>
+    <row r="16" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="J16" s="1">
+        <v>1810</v>
+      </c>
+      <c r="L16">
+        <f>J16*$L$8</f>
+        <v>3217.7777777777774</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J17" s="1">
+        <v>1820</v>
+      </c>
+      <c r="L17">
+        <f>J17*$L$8</f>
+        <v>3235.5555555555552</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J18" s="1">
+        <v>1830</v>
+      </c>
+      <c r="L18">
+        <f>J18*$L$8</f>
+        <v>3253.333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J19" s="1">
+        <v>1840</v>
+      </c>
+      <c r="L19">
+        <f>J19*$L$8</f>
+        <v>3271.1111111111109</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J20" s="1">
+        <v>1850</v>
+      </c>
+      <c r="L20">
+        <f>J20*$L$8</f>
+        <v>3288.8888888888887</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J21" s="1">
+        <v>1860</v>
+      </c>
+      <c r="L21">
+        <f>J21*$L$8</f>
+        <v>3306.6666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J22" s="1">
+        <v>1870</v>
+      </c>
+      <c r="L22">
+        <f>J22*$L$8</f>
+        <v>3324.4444444444443</v>
+      </c>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J23" s="1">
+        <v>1880</v>
+      </c>
+      <c r="L23">
+        <f>J23*$L$8</f>
+        <v>3342.2222222222222</v>
+      </c>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J24" s="1">
+        <v>1890</v>
+      </c>
+      <c r="L24">
+        <f>J24*$L$8</f>
+        <v>3360</v>
       </c>
     </row>
   </sheetData>

--- a/01_Acquifer Pumping Test/05_기타/모니터해상도.xlsx
+++ b/01_Acquifer Pumping Test/05_기타/모니터해상도.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\09_ihanseol - 2024\Z01_소소한작업들\04_Excel Automaiton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12_dev\02_Excel2\01_Acquifer Pumping Test\00_양수시험, 테스트 벨류\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7CB87C-F438-491D-9E91-44A6D5402061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADACED0-BFE9-4EAD-994F-F9243628A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48945" yWindow="405" windowWidth="36000" windowHeight="22545" xr2:uid="{4B4C7C8A-A003-44E1-878C-B52F6B52F4CE}"/>
+    <workbookView xWindow="6870" yWindow="2205" windowWidth="32535" windowHeight="22485" xr2:uid="{4B4C7C8A-A003-44E1-878C-B52F6B52F4CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,13 +34,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>가로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>세로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2560x1600의 18인치 모니터에서, 화면을 넓게 쓰기 위해 계산해봄 아래 노랑색이 최적의 해상도로 보임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -53,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +79,38 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -86,24 +118,225 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="메모" xfId="1" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,175 +669,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB107FC-7263-4B60-AC52-4BCAF1C4DD19}">
-  <dimension ref="I5:L24"/>
+  <dimension ref="I4:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.125" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="13.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I5">
+    <row r="4" spans="9:18" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I5" s="25">
         <v>3072</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="26">
         <v>1728</v>
       </c>
-    </row>
-    <row r="8" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I8" s="1">
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I8" s="5">
         <v>16</v>
       </c>
       <c r="J8" s="1">
         <v>9</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="6">
         <f>I8/J8</f>
         <v>1.7777777777777777</v>
       </c>
-    </row>
-    <row r="11" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I11" s="1" t="s">
+      <c r="O8" s="5">
+        <v>16</v>
+      </c>
+      <c r="P8" s="1">
+        <v>10</v>
+      </c>
+      <c r="R8" s="12">
+        <f>O8/P8</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I12" s="1">
+      <c r="L11" s="4"/>
+      <c r="O11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I12" s="5">
         <v>2560</v>
       </c>
       <c r="J12" s="1">
         <v>1440</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <f t="shared" ref="L12:L14" si="0">J12*$L$8</f>
         <v>2560</v>
       </c>
-    </row>
-    <row r="13" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I13" s="1">
+      <c r="O12" s="5">
+        <v>2560</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1600</v>
+      </c>
+      <c r="R12" s="12">
+        <f>P12*$R$8</f>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="13" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I13" s="5">
         <v>1920</v>
       </c>
       <c r="J13" s="1">
         <v>1080</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="4">
         <f t="shared" si="0"/>
         <v>1920</v>
       </c>
-    </row>
-    <row r="14" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I14" s="1">
+      <c r="O13" s="5"/>
+      <c r="P13" s="1">
+        <v>1500</v>
+      </c>
+      <c r="R13" s="12">
+        <f t="shared" ref="R13:R28" si="1">P13*$R$8</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="14" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I14" s="5">
         <v>3840</v>
       </c>
       <c r="J14" s="1">
         <v>2160</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="4">
         <f t="shared" si="0"/>
         <v>3840</v>
       </c>
-    </row>
-    <row r="15" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I15" s="1">
+      <c r="O14" s="5"/>
+      <c r="P14" s="1">
+        <v>1400</v>
+      </c>
+      <c r="R14" s="12">
+        <f t="shared" si="1"/>
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="15" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I15" s="18">
         <v>3200</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="19">
         <v>1800</v>
       </c>
-      <c r="L15">
-        <f>J15*$L$8</f>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21">
+        <f t="shared" ref="L15:L24" si="2">J15*$L$8</f>
         <v>3200</v>
       </c>
-    </row>
-    <row r="16" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="J16" s="1">
-        <v>1810</v>
-      </c>
-      <c r="L16">
-        <f>J16*$L$8</f>
-        <v>3217.7777777777774</v>
-      </c>
-    </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="O15" s="5"/>
+      <c r="P15" s="1">
+        <v>1300</v>
+      </c>
+      <c r="R15" s="12">
+        <f t="shared" si="1"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="16" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I16" s="23">
+        <v>3072</v>
+      </c>
+      <c r="J16" s="24">
+        <v>1728</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="2"/>
+        <v>3072</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="1">
+        <v>1280</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I17" s="5"/>
       <c r="J17" s="1">
         <v>1820</v>
       </c>
-      <c r="L17">
-        <f>J17*$L$8</f>
+      <c r="L17" s="4">
+        <f t="shared" si="2"/>
         <v>3235.5555555555552</v>
       </c>
-    </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="O17" s="5"/>
+      <c r="P17" s="16">
+        <v>1350</v>
+      </c>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17">
+        <f t="shared" si="1"/>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I18" s="5"/>
       <c r="J18" s="1">
         <v>1830</v>
       </c>
-      <c r="L18">
-        <f>J18*$L$8</f>
+      <c r="L18" s="4">
+        <f t="shared" si="2"/>
         <v>3253.333333333333</v>
       </c>
-    </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="O18" s="5"/>
+      <c r="R18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I19" s="5"/>
       <c r="J19" s="1">
         <v>1840</v>
       </c>
-      <c r="L19">
-        <f>J19*$L$8</f>
+      <c r="L19" s="4">
+        <f t="shared" si="2"/>
         <v>3271.1111111111109</v>
       </c>
-    </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="O19" s="5"/>
+      <c r="R19" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I20" s="5"/>
       <c r="J20" s="1">
         <v>1850</v>
       </c>
-      <c r="L20">
-        <f>J20*$L$8</f>
+      <c r="L20" s="4">
+        <f t="shared" si="2"/>
         <v>3288.8888888888887</v>
       </c>
-    </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="O20" s="5"/>
+      <c r="R20" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I21" s="5"/>
       <c r="J21" s="1">
         <v>1860</v>
       </c>
-      <c r="L21">
-        <f>J21*$L$8</f>
+      <c r="L21" s="4">
+        <f t="shared" si="2"/>
         <v>3306.6666666666665</v>
       </c>
-    </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="O21" s="5"/>
+      <c r="R21" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I22" s="5"/>
       <c r="J22" s="1">
         <v>1870</v>
       </c>
-      <c r="L22">
-        <f>J22*$L$8</f>
+      <c r="L22" s="4">
+        <f t="shared" si="2"/>
         <v>3324.4444444444443</v>
       </c>
-    </row>
-    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="O22" s="5"/>
+      <c r="R22" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I23" s="5"/>
       <c r="J23" s="1">
         <v>1880</v>
       </c>
-      <c r="L23">
-        <f>J23*$L$8</f>
+      <c r="L23" s="4">
+        <f t="shared" si="2"/>
         <v>3342.2222222222222</v>
       </c>
-    </row>
-    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="O23" s="5"/>
+      <c r="R23" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I24" s="5"/>
       <c r="J24" s="1">
         <v>1890</v>
       </c>
-      <c r="L24">
-        <f>J24*$L$8</f>
+      <c r="L24" s="4">
+        <f t="shared" si="2"/>
         <v>3360</v>
       </c>
+      <c r="O24" s="5"/>
+      <c r="R24" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I25" s="5"/>
+      <c r="L25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="R25" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I26" s="5"/>
+      <c r="L26" s="4"/>
+      <c r="O26" s="5"/>
+      <c r="R26" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I27" s="5"/>
+      <c r="L27" s="4"/>
+      <c r="O27" s="5"/>
+      <c r="R27" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I28" s="5"/>
+      <c r="L28" s="4"/>
+      <c r="O28" s="5"/>
+      <c r="R28" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I29" s="5"/>
+      <c r="L29" s="4"/>
+      <c r="O29" s="5"/>
+      <c r="R29" s="12"/>
+    </row>
+    <row r="30" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I30" s="5"/>
+      <c r="L30" s="4"/>
+      <c r="O30" s="5"/>
+      <c r="R30" s="12"/>
+    </row>
+    <row r="31" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I31" s="5"/>
+      <c r="L31" s="4"/>
+      <c r="O31" s="5"/>
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I32" s="5"/>
+      <c r="L32" s="4"/>
+      <c r="O32" s="5"/>
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I33" s="5"/>
+      <c r="L33" s="4"/>
+      <c r="O33" s="5"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I34" s="5"/>
+      <c r="L34" s="4"/>
+      <c r="O34" s="5"/>
+      <c r="R34" s="12"/>
+    </row>
+    <row r="35" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I35" s="5"/>
+      <c r="L35" s="4"/>
+      <c r="O35" s="5"/>
+      <c r="R35" s="12"/>
+    </row>
+    <row r="36" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I36" s="5"/>
+      <c r="L36" s="4"/>
+      <c r="O36" s="5"/>
+      <c r="R36" s="12"/>
+    </row>
+    <row r="37" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I37" s="5"/>
+      <c r="L37" s="4"/>
+      <c r="O37" s="5"/>
+      <c r="R37" s="12"/>
+    </row>
+    <row r="38" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I38" s="5"/>
+      <c r="L38" s="4"/>
+      <c r="O38" s="5"/>
+      <c r="R38" s="12"/>
+    </row>
+    <row r="39" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I39" s="5"/>
+      <c r="L39" s="4"/>
+      <c r="O39" s="5"/>
+      <c r="R39" s="12"/>
+    </row>
+    <row r="40" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I40" s="5"/>
+      <c r="L40" s="4"/>
+      <c r="O40" s="5"/>
+      <c r="R40" s="12"/>
+    </row>
+    <row r="41" spans="9:18" x14ac:dyDescent="0.3">
+      <c r="I41" s="5"/>
+      <c r="L41" s="4"/>
+      <c r="O41" s="5"/>
+      <c r="R41" s="12"/>
+    </row>
+    <row r="42" spans="9:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="8"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
